--- a/biology/Médecine/Oliva_Sabuco/Oliva_Sabuco.xlsx
+++ b/biology/Médecine/Oliva_Sabuco/Oliva_Sabuco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oliva Sabuco de Nantes y Barrera, née en 1562 à Alcaraz où elle est morte aux environs de 1646, est une philosophe et écrivaine espagnole, auteure de traités de médecine et pionnière espagnole de la médecine psychosomatique et de la thérapie holistique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est baptisée le 2 décembre 1562 à Alcaraz, fille de Francisca de Cozar et de Miguel Sabuco y Alvarez. Elle était intéressée par l'interaction entre les phénomènes physiques et psychologiques[1] et a écrit un ensemble de traités médicaux et psychologiques sur la nature humaine et les effets des émotions sur le corps et l'âme[2].
-Les débats sur l'attribution de ses écrits à son père ont souvent prévalu sur la prise en compte de ceux-ci[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est baptisée le 2 décembre 1562 à Alcaraz, fille de Francisca de Cozar et de Miguel Sabuco y Alvarez. Elle était intéressée par l'interaction entre les phénomènes physiques et psychologiques et a écrit un ensemble de traités médicaux et psychologiques sur la nature humaine et les effets des émotions sur le corps et l'âme.
+Les débats sur l'attribution de ses écrits à son père ont souvent prévalu sur la prise en compte de ceux-ci.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Postérité et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin français Charles Le Pois a cité l'influence du traité d'Oliva Sabuco sur son propre travail concernant l'hystérie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin français Charles Le Pois a cité l'influence du traité d'Oliva Sabuco sur son propre travail concernant l'hystérie.
 Dans le film espagnol La Cellule de Fermat (2007), l'un des scientifiques qui doit résoudre des énigmes mathématiques reçoit le nom de code d'« Oliva », en référence à Oliva Sabuco.
-Un des cratères de Vénus a été nommé Barrera en hommage à elle[5].</t>
+Un des cratères de Vénus a été nommé Barrera en hommage à elle.</t>
         </is>
       </c>
     </row>
